--- a/docs/W-9 Working Document/W-9.1 Team Members/W-9.1.5 Dio/3. Phase 3/ProjectReport.xlsx
+++ b/docs/W-9 Working Document/W-9.1 Team Members/W-9.1.5 Dio/3. Phase 3/ProjectReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>Design Modelling</t>
   </si>
@@ -304,17 +304,38 @@
     <t>ACTIVITY</t>
   </si>
   <si>
-    <t>Prepare SIT plan, test script &amp; data</t>
-  </si>
-  <si>
-    <t>Perform SIT and corrective actions</t>
+    <t>ORIGINAL PLAN</t>
+  </si>
+  <si>
+    <t>Final Project report</t>
+  </si>
+  <si>
+    <t>User Guide</t>
+  </si>
+  <si>
+    <t>Project Presentation &amp; Audit</t>
+  </si>
+  <si>
+    <t>SIT plan, test script &amp; data</t>
+  </si>
+  <si>
+    <t>Perform SIT and fixes</t>
+  </si>
+  <si>
+    <t>Detailed Design (UCRR)</t>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>ACTUAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,14 +384,22 @@
       <scheme val="major"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,6 +435,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="21">
     <border>
@@ -703,7 +738,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -751,9 +786,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -768,15 +800,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1078,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M30"/>
+  <dimension ref="B1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.5703125" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1247,9 +1286,14 @@
         <v>40915</v>
       </c>
     </row>
+    <row r="16" spans="2:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="34" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="17" spans="2:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="30" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="32" t="s">
@@ -1272,15 +1316,15 @@
         <v>28</v>
       </c>
       <c r="L18" s="33"/>
-      <c r="M18" s="34" t="s">
+      <c r="M18" s="31" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="22"/>
+        <v>41</v>
+      </c>
+      <c r="C19" s="21"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
@@ -1290,13 +1334,13 @@
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
-      <c r="M19" s="23"/>
+      <c r="M19" s="22"/>
     </row>
     <row r="20" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="24"/>
+        <v>42</v>
+      </c>
+      <c r="C20" s="23"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
@@ -1306,13 +1350,13 @@
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
       <c r="L20" s="13"/>
-      <c r="M20" s="25"/>
+      <c r="M20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="26"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
@@ -1322,13 +1366,13 @@
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
-      <c r="M21" s="25"/>
+      <c r="M21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="24"/>
+      <c r="C22" s="23"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
@@ -1338,13 +1382,13 @@
       <c r="J22" s="14"/>
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
-      <c r="M22" s="25"/>
+      <c r="M22" s="24"/>
     </row>
     <row r="23" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="24"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
@@ -1354,13 +1398,13 @@
       <c r="J23" s="14"/>
       <c r="K23" s="13"/>
       <c r="L23" s="13"/>
-      <c r="M23" s="25"/>
+      <c r="M23" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="24"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
@@ -1370,13 +1414,13 @@
       <c r="J24" s="14"/>
       <c r="K24" s="14"/>
       <c r="L24" s="13"/>
-      <c r="M24" s="25"/>
+      <c r="M24" s="24"/>
     </row>
     <row r="25" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="24"/>
+      <c r="C25" s="23"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
@@ -1386,13 +1430,13 @@
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
       <c r="L25" s="13"/>
-      <c r="M25" s="25"/>
+      <c r="M25" s="24"/>
     </row>
     <row r="26" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="24"/>
+        <v>39</v>
+      </c>
+      <c r="C26" s="23"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
@@ -1402,13 +1446,13 @@
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
-      <c r="M26" s="25"/>
+      <c r="M26" s="24"/>
     </row>
     <row r="27" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="24"/>
+        <v>40</v>
+      </c>
+      <c r="C27" s="23"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
@@ -1418,13 +1462,13 @@
       <c r="J27" s="13"/>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
-      <c r="M27" s="25"/>
+      <c r="M27" s="24"/>
     </row>
     <row r="28" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="24"/>
+        <v>36</v>
+      </c>
+      <c r="C28" s="23"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
@@ -1434,13 +1478,13 @@
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
       <c r="L28" s="14"/>
-      <c r="M28" s="27"/>
+      <c r="M28" s="26"/>
     </row>
     <row r="29" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="24"/>
+        <v>37</v>
+      </c>
+      <c r="C29" s="23"/>
       <c r="D29" s="13"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
@@ -1450,26 +1494,257 @@
       <c r="J29" s="14"/>
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
-      <c r="M29" s="27"/>
+      <c r="M29" s="26"/>
     </row>
     <row r="30" spans="2:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="30"/>
+      <c r="B30" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="29"/>
+    </row>
+    <row r="33" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="2:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="L35" s="33"/>
+      <c r="M35" s="31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="21"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="22"/>
+    </row>
+    <row r="37" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="23"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="24"/>
+    </row>
+    <row r="38" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="25"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="24"/>
+    </row>
+    <row r="39" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="23"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="24"/>
+    </row>
+    <row r="40" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="23"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="24"/>
+    </row>
+    <row r="41" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="23"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="24"/>
+    </row>
+    <row r="42" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="23"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="24"/>
+    </row>
+    <row r="43" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="23"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="24"/>
+    </row>
+    <row r="44" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="23"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+    </row>
+    <row r="45" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" s="23"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="26"/>
+    </row>
+    <row r="46" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="23"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="26"/>
+    </row>
+    <row r="47" spans="2:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="27"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G18:H18"/>
